--- a/downloaded_files/CMPS403_Lecture-35542.xlsx
+++ b/downloaded_files/CMPS403_Lecture-35542.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -373,15 +373,6 @@
   </x:si>
   <x:si>
     <x:t>Lujina Shawki Ahmed Shehata</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210375</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ماجد امجد رسمي وديع</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maged Amgad Rasmy Wadi</x:t>
   </x:si>
   <x:si>
     <x:t>1220191</x:t>
@@ -686,7 +677,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E60" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -986,7 +977,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T61"/>
+  <x:dimension ref="A1:T60"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2293,7 +2284,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.664603044</x:v>
+        <x:v>45916.0124269676</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2325,7 +2316,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45916.0124269676</x:v>
+        <x:v>45916.0105162847</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2357,7 +2348,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45916.0105162847</x:v>
+        <x:v>45906.664712963</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2389,7 +2380,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.664712963</x:v>
+        <x:v>45906.6647741088</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2421,7 +2412,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6647741088</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2453,7 +2444,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45916.0077419329</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2485,7 +2476,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45916.0077419329</x:v>
+        <x:v>45916.0008125</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2517,7 +2508,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45916.0008125</x:v>
+        <x:v>45906.4143989583</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2549,7 +2540,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.4143989583</x:v>
+        <x:v>45916.495316088</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2581,7 +2572,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45916.495316088</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2613,7 +2604,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45916.0067437847</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2645,7 +2636,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45916.0067437847</x:v>
+        <x:v>45916.0087601505</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2677,7 +2668,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45916.0087601505</x:v>
+        <x:v>45906.6647133102</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2709,7 +2700,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.6647133102</x:v>
+        <x:v>45916.0059218403</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2741,7 +2732,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45916.0059218403</x:v>
+        <x:v>45906.4149623032</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2773,7 +2764,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.4149623032</x:v>
+        <x:v>45915.9935680903</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2805,7 +2796,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45915.9935680903</x:v>
+        <x:v>45916.0031484607</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2837,7 +2828,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45916.0031484607</x:v>
+        <x:v>45916.0048866088</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2869,7 +2860,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45916.0048866088</x:v>
+        <x:v>45906.6641302431</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2901,7 +2892,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45906.6641302431</x:v>
+        <x:v>45906.5758611111</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2933,7 +2924,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45906.5758611111</x:v>
+        <x:v>45916.4881518519</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2950,38 +2941,6 @@
       <x:c r="R60" s="2" t="s"/>
       <x:c r="S60" s="2" t="s"/>
       <x:c r="T60" s="2" t="s"/>
-    </x:row>
-    <x:row r="61" spans="1:20">
-      <x:c r="A61" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B61" s="2" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="C61" s="2" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="D61" s="2" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="E61" s="3">
-        <x:v>45916.4881518519</x:v>
-      </x:c>
-      <x:c r="F61" s="2" t="s"/>
-      <x:c r="G61" s="2" t="s"/>
-      <x:c r="H61" s="2" t="s"/>
-      <x:c r="I61" s="2" t="s"/>
-      <x:c r="J61" s="2" t="s"/>
-      <x:c r="K61" s="2" t="s"/>
-      <x:c r="L61" s="2" t="s"/>
-      <x:c r="M61" s="2" t="s"/>
-      <x:c r="N61" s="2" t="s"/>
-      <x:c r="O61" s="2" t="s"/>
-      <x:c r="P61" s="2" t="s"/>
-      <x:c r="Q61" s="2" t="s"/>
-      <x:c r="R61" s="2" t="s"/>
-      <x:c r="S61" s="2" t="s"/>
-      <x:c r="T61" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS403_Lecture-35542.xlsx
+++ b/downloaded_files/CMPS403_Lecture-35542.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -301,6 +301,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Alaa Abd Elaziz Niazi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1161335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر عصام الدين عبدالرؤوف محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Essam El Din Abdel Raouf</x:t>
   </x:si>
   <x:si>
     <x:t>1220134</x:t>
@@ -677,7 +686,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E60" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -977,7 +986,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T60"/>
+  <x:dimension ref="A1:T61"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1772,7 +1781,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.9984759606</x:v>
+        <x:v>45927.4274449074</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1836,7 +1845,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6641871528</x:v>
+        <x:v>45927.4167707176</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -2028,7 +2037,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45927.5938108449</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2060,7 +2069,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.9948021181</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2092,7 +2101,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45916.0081829051</x:v>
+        <x:v>45915.9948021181</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2124,7 +2133,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45915.9978388079</x:v>
+        <x:v>45916.0081829051</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2156,7 +2165,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.9959137731</x:v>
+        <x:v>45915.9978388079</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2188,7 +2197,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45915.9959137731</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2220,7 +2229,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2252,7 +2261,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45918.1144121528</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2284,7 +2293,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45916.0124269676</x:v>
+        <x:v>45918.1144121528</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2316,7 +2325,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45916.0105162847</x:v>
+        <x:v>45916.0124269676</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2348,7 +2357,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.664712963</x:v>
+        <x:v>45916.0105162847</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2380,7 +2389,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6647741088</x:v>
+        <x:v>45906.664712963</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2412,7 +2421,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45906.6647741088</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2444,7 +2453,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45916.0077419329</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2476,7 +2485,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45916.0008125</x:v>
+        <x:v>45916.0077419329</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2508,7 +2517,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.4143989583</x:v>
+        <x:v>45916.0008125</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2540,7 +2549,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45916.495316088</x:v>
+        <x:v>45906.4143989583</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2572,7 +2581,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45916.495316088</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2604,7 +2613,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45916.0067437847</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2636,7 +2645,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45916.0087601505</x:v>
+        <x:v>45916.0067437847</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2668,7 +2677,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45906.6647133102</x:v>
+        <x:v>45916.0087601505</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2700,7 +2709,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45916.0059218403</x:v>
+        <x:v>45906.6647133102</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2732,7 +2741,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45906.4149623032</x:v>
+        <x:v>45916.0059218403</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2764,7 +2773,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45915.9935680903</x:v>
+        <x:v>45906.4149623032</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2796,7 +2805,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45916.0031484607</x:v>
+        <x:v>45915.9935680903</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2828,7 +2837,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45916.0048866088</x:v>
+        <x:v>45916.0031484607</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2860,7 +2869,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45906.6641302431</x:v>
+        <x:v>45916.0048866088</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2892,7 +2901,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45906.5758611111</x:v>
+        <x:v>45906.6641302431</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2924,7 +2933,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45916.4881518519</x:v>
+        <x:v>45906.5758611111</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2941,6 +2950,38 @@
       <x:c r="R60" s="2" t="s"/>
       <x:c r="S60" s="2" t="s"/>
       <x:c r="T60" s="2" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:20">
+      <x:c r="A61" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D61" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="E61" s="3">
+        <x:v>45916.4881518519</x:v>
+      </x:c>
+      <x:c r="F61" s="2" t="s"/>
+      <x:c r="G61" s="2" t="s"/>
+      <x:c r="H61" s="2" t="s"/>
+      <x:c r="I61" s="2" t="s"/>
+      <x:c r="J61" s="2" t="s"/>
+      <x:c r="K61" s="2" t="s"/>
+      <x:c r="L61" s="2" t="s"/>
+      <x:c r="M61" s="2" t="s"/>
+      <x:c r="N61" s="2" t="s"/>
+      <x:c r="O61" s="2" t="s"/>
+      <x:c r="P61" s="2" t="s"/>
+      <x:c r="Q61" s="2" t="s"/>
+      <x:c r="R61" s="2" t="s"/>
+      <x:c r="S61" s="2" t="s"/>
+      <x:c r="T61" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS403_Lecture-35542.xlsx
+++ b/downloaded_files/CMPS403_Lecture-35542.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -186,15 +186,6 @@
     <x:t>Saifeldin Wael Elsaid Hasan Darwesh</x:t>
   </x:si>
   <x:si>
-    <x:t>1210247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عائشة توفيق محمود توفيق عصمت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aisha Tawfik Mahmoud Tawfik Esmat</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220011</x:t>
   </x:si>
   <x:si>
@@ -339,15 +330,6 @@
     <x:t>Amr Ehab Mokhtar</x:t>
   </x:si>
   <x:si>
-    <x:t>1210275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فاطمه جمال زين العابدين محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fatma Gamal Zeinelabdeen</x:t>
-  </x:si>
-  <x:si>
     <x:t>4230161</x:t>
   </x:si>
   <x:si>
@@ -508,15 +490,6 @@
   </x:si>
   <x:si>
     <x:t>MANAR FARGHALY ABDELRAHMAN ABDELSHAFY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210312</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهاب ياسر السيد سالم البحراوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohab Yasser Alsayed Salem Albahrawy</x:t>
   </x:si>
   <x:si>
     <x:t>1230268</x:t>
@@ -686,7 +659,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -986,7 +959,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T61"/>
+  <x:dimension ref="A1:T58"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1621,7 +1594,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.9953478356</x:v>
+        <x:v>45906.6646794792</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1653,7 +1626,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6646794792</x:v>
+        <x:v>45906.6644613079</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1685,7 +1658,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6644613079</x:v>
+        <x:v>45906.6644298958</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1717,7 +1690,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6644298958</x:v>
+        <x:v>45916.5527510417</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1749,7 +1722,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45916.5527510417</x:v>
+        <x:v>45927.4274449074</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1781,7 +1754,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4274449074</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1813,7 +1786,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45927.4167707176</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1845,7 +1818,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4167707176</x:v>
+        <x:v>45906.6646892361</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1877,7 +1850,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6646892361</x:v>
+        <x:v>45916.0073168981</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1909,7 +1882,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45916.0073168981</x:v>
+        <x:v>45906.4146170486</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1941,7 +1914,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4146170486</x:v>
+        <x:v>45906.4145680208</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1973,7 +1946,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4145680208</x:v>
+        <x:v>45916.0043694792</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2005,7 +1978,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45916.0043694792</x:v>
+        <x:v>45927.5938108449</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2037,7 +2010,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45927.5938108449</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2069,7 +2042,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45915.9948021181</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2101,7 +2074,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.9948021181</x:v>
+        <x:v>45916.0081829051</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2133,7 +2106,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45916.0081829051</x:v>
+        <x:v>45915.9959137731</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2165,7 +2138,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.9978388079</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2197,7 +2170,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.9959137731</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2229,7 +2202,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45918.1144121528</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2261,7 +2234,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45916.0124269676</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2293,7 +2266,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45918.1144121528</x:v>
+        <x:v>45916.0105162847</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2325,7 +2298,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45916.0124269676</x:v>
+        <x:v>45906.664712963</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2357,7 +2330,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45916.0105162847</x:v>
+        <x:v>45906.6647741088</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2389,7 +2362,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.664712963</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2421,7 +2394,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6647741088</x:v>
+        <x:v>45916.0077419329</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2453,7 +2426,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45916.0008125</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2485,7 +2458,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45916.0077419329</x:v>
+        <x:v>45906.4143989583</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2517,7 +2490,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45916.0008125</x:v>
+        <x:v>45916.495316088</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2549,7 +2522,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.4143989583</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2581,7 +2554,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45916.495316088</x:v>
+        <x:v>45916.0067437847</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2613,7 +2586,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45916.0087601505</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2645,7 +2618,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45916.0067437847</x:v>
+        <x:v>45906.6647133102</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2677,7 +2650,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45916.0087601505</x:v>
+        <x:v>45916.0059218403</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2709,7 +2682,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45906.6647133102</x:v>
+        <x:v>45915.9935680903</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2741,7 +2714,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45916.0059218403</x:v>
+        <x:v>45916.0031484607</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2773,7 +2746,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45906.4149623032</x:v>
+        <x:v>45916.0048866088</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2805,7 +2778,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45915.9935680903</x:v>
+        <x:v>45906.6641302431</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2837,7 +2810,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45916.0031484607</x:v>
+        <x:v>45906.5758611111</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2869,7 +2842,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45916.0048866088</x:v>
+        <x:v>45916.4881518519</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2886,102 +2859,6 @@
       <x:c r="R58" s="2" t="s"/>
       <x:c r="S58" s="2" t="s"/>
       <x:c r="T58" s="2" t="s"/>
-    </x:row>
-    <x:row r="59" spans="1:20">
-      <x:c r="A59" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B59" s="2" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="C59" s="2" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="D59" s="2" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="E59" s="3">
-        <x:v>45906.6641302431</x:v>
-      </x:c>
-      <x:c r="F59" s="2" t="s"/>
-      <x:c r="G59" s="2" t="s"/>
-      <x:c r="H59" s="2" t="s"/>
-      <x:c r="I59" s="2" t="s"/>
-      <x:c r="J59" s="2" t="s"/>
-      <x:c r="K59" s="2" t="s"/>
-      <x:c r="L59" s="2" t="s"/>
-      <x:c r="M59" s="2" t="s"/>
-      <x:c r="N59" s="2" t="s"/>
-      <x:c r="O59" s="2" t="s"/>
-      <x:c r="P59" s="2" t="s"/>
-      <x:c r="Q59" s="2" t="s"/>
-      <x:c r="R59" s="2" t="s"/>
-      <x:c r="S59" s="2" t="s"/>
-      <x:c r="T59" s="2" t="s"/>
-    </x:row>
-    <x:row r="60" spans="1:20">
-      <x:c r="A60" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B60" s="2" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="C60" s="2" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="D60" s="2" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="E60" s="3">
-        <x:v>45906.5758611111</x:v>
-      </x:c>
-      <x:c r="F60" s="2" t="s"/>
-      <x:c r="G60" s="2" t="s"/>
-      <x:c r="H60" s="2" t="s"/>
-      <x:c r="I60" s="2" t="s"/>
-      <x:c r="J60" s="2" t="s"/>
-      <x:c r="K60" s="2" t="s"/>
-      <x:c r="L60" s="2" t="s"/>
-      <x:c r="M60" s="2" t="s"/>
-      <x:c r="N60" s="2" t="s"/>
-      <x:c r="O60" s="2" t="s"/>
-      <x:c r="P60" s="2" t="s"/>
-      <x:c r="Q60" s="2" t="s"/>
-      <x:c r="R60" s="2" t="s"/>
-      <x:c r="S60" s="2" t="s"/>
-      <x:c r="T60" s="2" t="s"/>
-    </x:row>
-    <x:row r="61" spans="1:20">
-      <x:c r="A61" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B61" s="2" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="C61" s="2" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="D61" s="2" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="E61" s="3">
-        <x:v>45916.4881518519</x:v>
-      </x:c>
-      <x:c r="F61" s="2" t="s"/>
-      <x:c r="G61" s="2" t="s"/>
-      <x:c r="H61" s="2" t="s"/>
-      <x:c r="I61" s="2" t="s"/>
-      <x:c r="J61" s="2" t="s"/>
-      <x:c r="K61" s="2" t="s"/>
-      <x:c r="L61" s="2" t="s"/>
-      <x:c r="M61" s="2" t="s"/>
-      <x:c r="N61" s="2" t="s"/>
-      <x:c r="O61" s="2" t="s"/>
-      <x:c r="P61" s="2" t="s"/>
-      <x:c r="Q61" s="2" t="s"/>
-      <x:c r="R61" s="2" t="s"/>
-      <x:c r="S61" s="2" t="s"/>
-      <x:c r="T61" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS403_Lecture-35542.xlsx
+++ b/downloaded_files/CMPS403_Lecture-35542.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -535,15 +535,6 @@
   </x:si>
   <x:si>
     <x:t>Yusuf Ahmed El Sayed Ahmed Salama</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210421</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عبدالنبى عويس خلف طلبه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>youssef Abdelnaby Awais Khalaf Tolba</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -659,7 +650,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E57" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -959,7 +950,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T58"/>
+  <x:dimension ref="A1:T57"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2827,38 +2818,6 @@
       <x:c r="R57" s="2" t="s"/>
       <x:c r="S57" s="2" t="s"/>
       <x:c r="T57" s="2" t="s"/>
-    </x:row>
-    <x:row r="58" spans="1:20">
-      <x:c r="A58" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B58" s="2" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="C58" s="2" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="D58" s="2" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="E58" s="3">
-        <x:v>45916.4881518519</x:v>
-      </x:c>
-      <x:c r="F58" s="2" t="s"/>
-      <x:c r="G58" s="2" t="s"/>
-      <x:c r="H58" s="2" t="s"/>
-      <x:c r="I58" s="2" t="s"/>
-      <x:c r="J58" s="2" t="s"/>
-      <x:c r="K58" s="2" t="s"/>
-      <x:c r="L58" s="2" t="s"/>
-      <x:c r="M58" s="2" t="s"/>
-      <x:c r="N58" s="2" t="s"/>
-      <x:c r="O58" s="2" t="s"/>
-      <x:c r="P58" s="2" t="s"/>
-      <x:c r="Q58" s="2" t="s"/>
-      <x:c r="R58" s="2" t="s"/>
-      <x:c r="S58" s="2" t="s"/>
-      <x:c r="T58" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS403_Lecture-35542.xlsx
+++ b/downloaded_files/CMPS403_Lecture-35542.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -84,7 +84,7 @@
     <x:t>احمد محمد فاروق محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed farouk mohamed mohamed soltan</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Farouk Mohamed  </x:t>
   </x:si>
   <x:si>
     <x:t>1210405</x:t>
@@ -292,15 +292,6 @@
   </x:si>
   <x:si>
     <x:t>Ali Alaa Abd Elaziz Niazi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1161335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر عصام الدين عبدالرؤوف محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Essam El Din Abdel Raouf</x:t>
   </x:si>
   <x:si>
     <x:t>1220134</x:t>
@@ -650,7 +641,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E57" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E56" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -950,7 +941,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T57"/>
+  <x:dimension ref="A1:T56"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1969,7 +1960,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45927.5938108449</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2001,7 +1992,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45915.9948021181</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2033,7 +2024,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.9948021181</x:v>
+        <x:v>45916.0081829051</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2065,7 +2056,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45916.0081829051</x:v>
+        <x:v>45915.9959137731</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2097,7 +2088,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45915.9959137731</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2129,7 +2120,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2161,7 +2152,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45918.1144121528</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2193,7 +2184,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45918.1144121528</x:v>
+        <x:v>45916.0124269676</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2225,7 +2216,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45916.0124269676</x:v>
+        <x:v>45916.0105162847</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2257,7 +2248,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45916.0105162847</x:v>
+        <x:v>45906.664712963</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2289,7 +2280,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.664712963</x:v>
+        <x:v>45906.6647741088</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2321,7 +2312,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6647741088</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2353,7 +2344,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45916.0077419329</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2385,7 +2376,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45916.0077419329</x:v>
+        <x:v>45916.0008125</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2417,7 +2408,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45916.0008125</x:v>
+        <x:v>45906.4143989583</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2449,7 +2440,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.4143989583</x:v>
+        <x:v>45916.495316088</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2481,7 +2472,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45916.495316088</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2513,7 +2504,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45916.0067437847</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2545,7 +2536,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45916.0067437847</x:v>
+        <x:v>45916.0087601505</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2577,7 +2568,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45916.0087601505</x:v>
+        <x:v>45906.6647133102</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2609,7 +2600,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45906.6647133102</x:v>
+        <x:v>45916.0059218403</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2641,7 +2632,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45916.0059218403</x:v>
+        <x:v>45915.9935680903</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2673,7 +2664,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45915.9935680903</x:v>
+        <x:v>45916.0031484607</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2705,7 +2696,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45916.0031484607</x:v>
+        <x:v>45916.0048866088</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2737,7 +2728,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45916.0048866088</x:v>
+        <x:v>45906.6641302431</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2769,7 +2760,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45906.6641302431</x:v>
+        <x:v>45906.5758611111</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2786,38 +2777,6 @@
       <x:c r="R56" s="2" t="s"/>
       <x:c r="S56" s="2" t="s"/>
       <x:c r="T56" s="2" t="s"/>
-    </x:row>
-    <x:row r="57" spans="1:20">
-      <x:c r="A57" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B57" s="2" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="C57" s="2" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="D57" s="2" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="E57" s="3">
-        <x:v>45906.5758611111</x:v>
-      </x:c>
-      <x:c r="F57" s="2" t="s"/>
-      <x:c r="G57" s="2" t="s"/>
-      <x:c r="H57" s="2" t="s"/>
-      <x:c r="I57" s="2" t="s"/>
-      <x:c r="J57" s="2" t="s"/>
-      <x:c r="K57" s="2" t="s"/>
-      <x:c r="L57" s="2" t="s"/>
-      <x:c r="M57" s="2" t="s"/>
-      <x:c r="N57" s="2" t="s"/>
-      <x:c r="O57" s="2" t="s"/>
-      <x:c r="P57" s="2" t="s"/>
-      <x:c r="Q57" s="2" t="s"/>
-      <x:c r="R57" s="2" t="s"/>
-      <x:c r="S57" s="2" t="s"/>
-      <x:c r="T57" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS403_Lecture-35542.xlsx
+++ b/downloaded_files/CMPS403_Lecture-35542.xlsx
@@ -390,7 +390,7 @@
     <x:t>محمد احمد محمود احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed Mahmoud Alatar</x:t>
+    <x:t>Mohammed Ahmed Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>4230189</x:t>
@@ -498,7 +498,7 @@
     <x:t>نور محمد السيد عبدالله خليل طنطاوي</x:t>
   </x:si>
   <x:si>
-    <x:t>NOOR MOHAMED ELSAYED ABDALLAH KHALIL TANTAWY</x:t>
+    <x:t>Noor Mohamed Elsayed Abdallah Khalil Tantawy</x:t>
   </x:si>
   <x:si>
     <x:t>1220291</x:t>

--- a/downloaded_files/CMPS403_Lecture-35542.xlsx
+++ b/downloaded_files/CMPS403_Lecture-35542.xlsx
@@ -93,7 +93,7 @@
     <x:t>احمد محمد محمود محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohammed Mahmoud Mohammed</x:t>
+    <x:t>Ahmed Mohamed Mahmoud Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220162</x:t>
@@ -264,7 +264,7 @@
     <x:t>عبدالله محمد عبدالحميد صبحى المهدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdallah Mohamed ElMahdy</x:t>
+    <x:t>Abdallah Mohamed AbdelHameed Sobhy ElMahdy</x:t>
   </x:si>
   <x:si>
     <x:t>1210016</x:t>
@@ -309,7 +309,7 @@
     <x:t>عمرو اشرف على محمود حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>AmrAshrafAli</x:t>
+    <x:t>Amr Ashraf Ali Mahmoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4230159</x:t>
@@ -345,7 +345,7 @@
     <x:t>لؤى احمد كمال عبدالغفار عثمان</x:t>
   </x:si>
   <x:si>
-    <x:t>Loay Ahmed Kamal Abdul Ghaffar Othman</x:t>
+    <x:t>Loay Ahmed Kamal Abdelghafar Othman</x:t>
   </x:si>
   <x:si>
     <x:t>1220138</x:t>
@@ -417,7 +417,7 @@
     <x:t>محمد ممدوح سيد محمد السمرى</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
+    <x:t>Mohamed Mamdouh Sayed Mohamed Elsemary</x:t>
   </x:si>
   <x:si>
     <x:t>1210291</x:t>
